--- a/artfynd/A 59769-2025 artfynd.xlsx
+++ b/artfynd/A 59769-2025 artfynd.xlsx
@@ -1045,7 +1045,7 @@
         <v>130602926</v>
       </c>
       <c r="B5" t="n">
-        <v>58037</v>
+        <v>58041</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
